--- a/WPDigitalizer/MQ3/MQ3_Analisis.xlsx
+++ b/WPDigitalizer/MQ3/MQ3_Analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Migue\OneDrive - ufps.edu.co\Escritorio\MQSensorsLib\WPDigitalizer\MQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F223641-A109-4EEC-8963-A7921FE4400E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620C7D6C-042E-4CE4-BEC0-E20D43C37410}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C5EFFC2-5141-4097-B56E-3EAE3E1B3AE4}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
-  <si>
-    <t>PPM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>RS/R0</t>
   </si>
@@ -59,6 +56,24 @@
   </si>
   <si>
     <t>LPG</t>
+  </si>
+  <si>
+    <t>Rs/R0</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>Mg/L Calculado</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Error porcentual</t>
+  </si>
+  <si>
+    <t>Error promedio</t>
   </si>
 </sst>
 </file>
@@ -88,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -111,21 +126,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,7 +650,1649 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>Hexane</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.4136496062992126"/>
+                  <c:y val="-0.49059310294546515"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>HEXANE!$A$21:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>52.132105222319197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.505814631771599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.147346385956801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.0060524334198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.551169959105399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.9515019344802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.152639075520501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HEXANE!$B$21:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.103536704986982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21482037565589701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40508594014569699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01752987664727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1472269232604502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9778670109350198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89D7-4028-9007-C0824FC35502}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="652964904"/>
+        <c:axId val="652966544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="652964904"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652966544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="652966544"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652964904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>LPG</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13721259842519684"/>
+                  <c:y val="0.15789297171186936"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LPG!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.10444025524245699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21482037565589701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40862106814454302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03536704986982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1472269232604502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9778670109350198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9134863991497504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LPG!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>51.348329074375599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.813323987194003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.241864000126803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.7635144163132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.753186734235101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.7454162087133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.1347270620369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3BC-4BD2-90C1-48D975BFE431}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366270552"/>
+        <c:axId val="690053448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="366270552"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690053448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="690053448"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366270552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>LPG</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.43405446194225722"/>
+                  <c:y val="-0.58347222222222217"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LPG!$A$19:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>51.348329074375599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.813323987194003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.241864000126803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.7635144163132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.753186734235101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.7454162087133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.1347270620369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LPG!$B$19:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.10444025524245699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21482037565589701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40862106814454302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03536704986982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1472269232604502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9778670109350198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9134863991497504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE5E-4F0B-9F41-2F9E6B45367A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561369232"/>
+        <c:axId val="557868704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561369232"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557868704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="557868704"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561369232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>Alcohol</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10912926509186352"/>
+                  <c:y val="-0.53101851851851856"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Alcohol!$A$21:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.3006052433419799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.52830673265877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98496557649837702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53735730587751895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39690284370655698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.293160371356816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.206913808111479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16237767391887201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.129372540128079</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11635618505358999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Alcohol!$B$21:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.103536704986982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21669508284625499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.412187046707997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03536704986982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6267497726757201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5338073109426098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0862106814454302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1472269232604502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0474887337508907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0872685928713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35EF-49F1-9716-648ABEAF6A82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="550149448"/>
+        <c:axId val="550152072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="550149448"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550152072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="550152072"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550149448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -639,7 +2363,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0263779527559055E-2"/>
+          <c:y val="0.13004629629629633"/>
+          <c:w val="0.91040288713910766"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -992,7 +2726,431 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>Benzine</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.2098206474190727E-2"/>
+                  <c:y val="-0.61124999999999996"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Benzine!$A$19:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.1535653960688297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2105463740271101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5970103724929099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7782794100389201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.48269776045635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2551169959105399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.03076080197786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94120496726806802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83378222347178998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77296155661007604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Benzine!$B$19:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.102640971670123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21482037565589701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40862106814454302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.02640971670123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6409461890372301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5118864315095801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0508594014569699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1472269232604502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9778670109350198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9134863991497504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B336-4328-A199-FC6A59787E30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="647853344"/>
+        <c:axId val="647854000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="647853344"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647854000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="647854000"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647853344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1416,7 +3574,431 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>CH4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.43175546806649168"/>
+                  <c:y val="-0.58347222222222217"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CH4'!$A$20:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>39.093563826527401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.690284370655696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.296113202004001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.5356539606883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.169650342858297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.169650342858297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.130296168378003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.4877794700378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.066996389388301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.066996389388301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CH4'!$B$20:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.9134863991497504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9088476107129697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1472269232604502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0862106814454302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5118864315095801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.65526649552671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01752987664727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.412187046707997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21669508284625499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.101752987664727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BFB-4004-9DC5-83F5D8506A4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="560564592"/>
+        <c:axId val="656256904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="560564592"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656256904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="656256904"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560564592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1822,7 +4404,421 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>CO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35134711286089237"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.44686220472440946"/>
+                  <c:y val="-0.58194444444444449"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CO!$A$20:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50.576336548970701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.182100730616597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.169650342858297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.631689912697503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.380297829199701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.054229025554701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9936419201967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CO!$B$20:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.101752987664727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21482037565589701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.412187046707997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.02640971670123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2008729076258096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9778670109350198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9134863991497504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46FF-4B06-875B-A7FF4AAF5C1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="556639544"/>
+        <c:axId val="556638888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="556639544"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556638888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="556638888"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556639544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2228,413 +5224,127 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-419"/>
-              <a:t>LPG</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-419"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.13721259842519684"/>
-                  <c:y val="0.15789297171186936"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-419"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>LPG!$A$3:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.10444025524245699</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21482037565589701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40862106814454302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.03536704986982</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.1472269232604502</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.9778670109350198</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.9134863991497504</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>LPG!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>51.348329074375599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.813323987194003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.241864000126803</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.7635144163132</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.753186734235101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.7454162087133</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.1347270620369</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C3BC-4BD2-90C1-48D975BFE431}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="366270552"/>
-        <c:axId val="690053448"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="366270552"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-419"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="690053448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="690053448"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-419"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="366270552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-419"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2874,6 +5584,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3390,7 +6220,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3906,7 +6736,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4422,7 +7252,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4938,7 +7768,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5454,7 +8284,3103 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6008,6 +11934,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D1A500-177F-4301-8143-4C8FF1C21638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6016,15 +11978,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6049,6 +12011,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC7C7E7-AFDA-4577-A975-FDD556AC4520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6057,15 +12055,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>690562</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>690562</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6090,6 +12088,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE731C96-EDAB-43E5-9F91-59213EC669C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6098,15 +12132,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6131,6 +12165,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D4AC63-0A44-4410-B1C6-03601C552802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6139,14 +12209,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6172,6 +12242,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440DFA29-0C9C-4608-A654-6535844059EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6180,15 +12286,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6208,6 +12314,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DAF8CD-9B3C-4233-A98A-ACDA505431F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6513,10 +12655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232858AB-EFC4-400C-8167-ED5D9C610C58}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6525,11 +12667,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -6537,9 +12679,9 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
+      <c r="A2" s="10"/>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6622,9 +12764,292 @@
         <v>0.11635618505358999</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2.3006052433419799</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0.103536704986982</v>
+      </c>
+      <c r="C21" s="2">
+        <f>0.3934*((A21)^(-1.504))</f>
+        <v>0.11236313021047439</v>
+      </c>
+      <c r="D21" s="2">
+        <f>ABS(C21-B21)</f>
+        <v>8.8264252234923901E-3</v>
+      </c>
+      <c r="E21" s="2">
+        <f>D21/B21</f>
+        <v>8.5249238176955358E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1.52830673265877</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0.21669508284625499</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:C30" si="0">0.3934*((A22)^(-1.504))</f>
+        <v>0.20786516961445145</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D30" si="1">ABS(C22-B22)</f>
+        <v>8.8299132318035434E-3</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22:E30" si="2">D22/B22</f>
+        <v>4.0748101506614988E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.98496557649837702</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0.412187046707997</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40246590271018451</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>9.7211439978124869E-3</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>2.358430250405024E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>0.53735730587751895</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1.03536704986982</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0011947557464467</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4172294123373304E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3005004483839716E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0.39690284370655698</v>
+      </c>
+      <c r="B25" s="12">
+        <v>1.6267497726757201</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>1.579113342090062</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7636430585658029E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9283194862418451E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0.293160371356816</v>
+      </c>
+      <c r="B26" s="12">
+        <v>2.5338073109426098</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4906232607138734</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3184050228736393E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7043146904754707E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.206913808111479</v>
+      </c>
+      <c r="B27" s="12">
+        <v>4.0862106814454302</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2061716043986825</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11996092295325234</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9357498255772295E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>0.16237767391887201</v>
+      </c>
+      <c r="B28" s="12">
+        <v>6.1472269232604502</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0562358073373845</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0991115923065635E-2</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4801977714335706E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0.129372540128079</v>
+      </c>
+      <c r="B29" s="12">
+        <v>8.0474887337508907</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5236150837750557</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47612635002416503</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="2"/>
+        <v>5.9164587336085046E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>0.11635618505358999</v>
+      </c>
+      <c r="B30" s="12">
+        <v>10.0872685928713</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9973981217924752</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>8.9870471078825176E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="2"/>
+        <v>8.9092969272511376E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4">
+        <f>AVERAGE(E21:E30)</f>
+        <v>3.4114634867207769E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B37" s="2">
+        <f>0.3934*((A37)^(-1.504))</f>
+        <v>12.555509921966392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" ref="B38:B39" si="3">0.3934*((A38)^(-1.504))</f>
+        <v>5.2203954146536252E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>0.11635618505358999</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9973981217924752</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6634,7 +13059,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D929E0-C068-4B1B-BB8E-F6B06E71788E}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -6643,17 +13068,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
+      <c r="A2" s="10"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6736,9 +13161,104 @@
         <v>0.77296155661007604</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>4.1535653960688297</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.102640971670123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>3.2105463740271101</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.21482037565589701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2.5970103724929099</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.40862106814454302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1.7782794100389201</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.02640971670123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1.48269776045635</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.6409461890372301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1.2551169959105399</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.5118864315095801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1.03076080197786</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.0508594014569699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0.94120496726806802</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6.1472269232604502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.83378222347178998</v>
+      </c>
+      <c r="B27" s="2">
+        <v>7.9778670109350198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>0.77296155661007604</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9.9134863991497504</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6747,7 +13267,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837A142F-A264-4D01-A26F-E9B61CBE035D}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -6756,17 +13276,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
+      <c r="A2" s="10"/>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6849,9 +13369,104 @@
         <v>49.066996389388301</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>39.093563826527401</v>
+      </c>
+      <c r="B20" s="2">
+        <v>9.9134863991497504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>39.690284370655696</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7.9088476107129697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>40.296113202004001</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6.1472269232604502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>41.5356539606883</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4.0862106814454302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>42.169650342858297</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.5118864315095801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>42.169650342858297</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.65526649552671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44.130296168378003</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.01752987664727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45.4877794700378</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.412187046707997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>49.066996389388301</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.21669508284625499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>49.066996389388301</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.101752987664727</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6860,7 +13475,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A322A761-882B-44F1-A786-A95B3813B6B6}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -6869,17 +13484,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
+      <c r="A2" s="10"/>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6938,9 +13553,80 @@
         <v>15.9936419201967</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>50.576336548970701</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.101752987664727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>46.182100730616597</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.21482037565589701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>42.169650342858297</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.412187046707997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>34.631689912697503</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.02640971670123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>20.380297829199701</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6.2008729076258096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>18.054229025554701</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7.9778670109350198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>15.9936419201967</v>
+      </c>
+      <c r="B26" s="2">
+        <v>9.9134863991497504</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6949,7 +13635,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7FCDF8-00E6-44AE-8C88-3AF2DD83FBD0}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -6958,17 +13644,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
+      <c r="A2" s="10"/>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7027,9 +13713,80 @@
         <v>10.152639075520501</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>52.132105222319197</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.103536704986982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>38.505814631771599</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.21482037565589701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>31.147346385956801</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.40508594014569699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23.0060524334198</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.01752987664727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>12.551169959105399</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6.1472269232604502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>10.9515019344802</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7.9778670109350198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>10.152639075520501</v>
+      </c>
+      <c r="B27" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7038,7 +13795,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526543DA-870C-4FD9-86D4-30D11917DC17}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -7047,17 +13804,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
+      <c r="A2" s="10"/>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7116,9 +13873,80 @@
         <v>13.1347270620369</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>51.348329074375599</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.10444025524245699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>42.813323987194003</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.21482037565589701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>36.241864000126803</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.40862106814454302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>29.7635144163132</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.03536704986982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>15.753186734235101</v>
+      </c>
+      <c r="B23" s="2">
+        <v>6.1472269232604502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>13.7454162087133</v>
+      </c>
+      <c r="B24" s="2">
+        <v>7.9778670109350198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>13.1347270620369</v>
+      </c>
+      <c r="B25" s="2">
+        <v>9.9134863991497504</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/WPDigitalizer/MQ3/MQ3_Analisis.xlsx
+++ b/WPDigitalizer/MQ3/MQ3_Analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Migue\OneDrive - ufps.edu.co\Escritorio\MQSensorsLib\WPDigitalizer\MQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620C7D6C-042E-4CE4-BEC0-E20D43C37410}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9C24FB-BAA8-4F48-89C0-AF5E71E1AE32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C5EFFC2-5141-4097-B56E-3EAE3E1B3AE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9C5EFFC2-5141-4097-B56E-3EAE3E1B3AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Alcohol" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
     <t>RS/R0</t>
   </si>
@@ -169,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -179,18 +179,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -198,16 +186,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3589,31 +3593,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-419"/>
-              <a:t>CH4</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3690,8 +3669,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.43175546806649168"/>
-                  <c:y val="-0.58347222222222217"/>
+                  <c:x val="-0.47070800524934381"/>
+                  <c:y val="-0.48533209390492854"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3805,7 +3784,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4BFB-4004-9DC5-83F5D8506A4A}"/>
+              <c16:uniqueId val="{00000000-0861-41D7-A446-1E51B5A8468B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3817,13 +3796,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="560564592"/>
-        <c:axId val="656256904"/>
+        <c:axId val="510267000"/>
+        <c:axId val="510263392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="560564592"/>
+        <c:axId val="510267000"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3879,14 +3857,13 @@
             <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656256904"/>
+        <c:crossAx val="510263392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="656256904"/>
+        <c:axId val="510263392"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3942,7 +3919,7 @@
             <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560564592"/>
+        <c:crossAx val="510267000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12090,23 +12067,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>661987</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>661987</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE731C96-EDAB-43E5-9F91-59213EC669C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FCADA9-0C49-49ED-8569-5D970AA73661}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12657,8 +12634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232858AB-EFC4-400C-8167-ED5D9C610C58}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12667,7 +12644,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -12679,7 +12656,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -12768,33 +12745,33 @@
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2.3006052433419799</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="8">
         <v>0.103536704986982</v>
       </c>
       <c r="C21" s="2">
@@ -12814,7 +12791,7 @@
       <c r="A22" s="2">
         <v>1.52830673265877</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="8">
         <v>0.21669508284625499</v>
       </c>
       <c r="C22" s="2">
@@ -12834,7 +12811,7 @@
       <c r="A23" s="2">
         <v>0.98496557649837702</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="8">
         <v>0.412187046707997</v>
       </c>
       <c r="C23" s="2">
@@ -12854,7 +12831,7 @@
       <c r="A24" s="2">
         <v>0.53735730587751895</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="8">
         <v>1.03536704986982</v>
       </c>
       <c r="C24" s="2">
@@ -12874,7 +12851,7 @@
       <c r="A25" s="2">
         <v>0.39690284370655698</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="8">
         <v>1.6267497726757201</v>
       </c>
       <c r="C25" s="2">
@@ -12894,7 +12871,7 @@
       <c r="A26" s="2">
         <v>0.293160371356816</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="8">
         <v>2.5338073109426098</v>
       </c>
       <c r="C26" s="2">
@@ -12914,7 +12891,7 @@
       <c r="A27" s="2">
         <v>0.206913808111479</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="8">
         <v>4.0862106814454302</v>
       </c>
       <c r="C27" s="2">
@@ -12934,7 +12911,7 @@
       <c r="A28" s="2">
         <v>0.16237767391887201</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="8">
         <v>6.1472269232604502</v>
       </c>
       <c r="C28" s="2">
@@ -12954,7 +12931,7 @@
       <c r="A29" s="2">
         <v>0.129372540128079</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="8">
         <v>8.0474887337508907</v>
       </c>
       <c r="C29" s="2">
@@ -12974,7 +12951,7 @@
       <c r="A30" s="2">
         <v>0.11635618505358999</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="8">
         <v>10.0872685928713</v>
       </c>
       <c r="C30" s="2">
@@ -12991,28 +12968,28 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="4">
         <f>AVERAGE(E21:E30)</f>
         <v>3.4114634867207769E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -13043,13 +13020,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13068,7 +13045,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13076,7 +13053,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -13165,7 +13142,7 @@
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13173,7 +13150,7 @@
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -13267,16 +13244,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837A142F-A264-4D01-A26F-E9B61CBE035D}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13284,7 +13261,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -13369,104 +13346,235 @@
         <v>49.066996389388301</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>39.093563826527401</v>
       </c>
       <c r="B20" s="2">
         <v>9.9134863991497504</v>
       </c>
+      <c r="C20" s="17">
+        <f>2E+31*((A20)^(-19.01))</f>
+        <v>10.841988518469689</v>
+      </c>
+      <c r="D20">
+        <f>ABS(B20-C20)</f>
+        <v>0.92850211931993876</v>
+      </c>
+      <c r="E20">
+        <f>D20/B20</f>
+        <v>9.3660502666304518E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>39.690284370655696</v>
       </c>
       <c r="B21" s="2">
         <v>7.9088476107129697</v>
       </c>
+      <c r="C21" s="17">
+        <f t="shared" ref="C21:C29" si="0">2E+31*((A21)^(-19.01))</f>
+        <v>8.129112868706331</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D29" si="1">ABS(B21-C21)</f>
+        <v>0.22026525799336127</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E29" si="2">D21/B21</f>
+        <v>2.7850487053891371E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>40.296113202004001</v>
       </c>
       <c r="B22" s="2">
         <v>6.1472269232604502</v>
       </c>
+      <c r="C22" s="17">
+        <f t="shared" si="0"/>
+        <v>6.0950512832209895</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>5.2175640039460625E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>8.4876710573402736E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>41.5356539606883</v>
       </c>
       <c r="B23" s="2">
         <v>4.0862106814454302</v>
       </c>
+      <c r="C23" s="17">
+        <f t="shared" si="0"/>
+        <v>3.4264609376598312</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.65974974378559903</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0.1614575936530574</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42.169650342858297</v>
       </c>
       <c r="B24" s="2">
         <v>2.5118864315095801</v>
       </c>
+      <c r="C24" s="17">
+        <f t="shared" si="0"/>
+        <v>2.5690940047573876</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>5.7207573247807453E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>2.2774745119916569E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42.169650342858297</v>
       </c>
       <c r="B25" s="2">
         <v>1.65526649552671</v>
       </c>
+      <c r="C25" s="17">
+        <f t="shared" si="0"/>
+        <v>2.5690940047573876</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.91382750923067757</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>0.55207273976743865</v>
+      </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44.130296168378003</v>
       </c>
       <c r="B26" s="2">
         <v>1.01752987664727</v>
       </c>
+      <c r="C26" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0828857213146799</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>6.5355844667409846E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>6.4229902401249747E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45.4877794700378</v>
       </c>
       <c r="B27" s="2">
         <v>0.412187046707997</v>
       </c>
+      <c r="C27" s="17">
+        <f t="shared" si="0"/>
+        <v>0.6087669244471986</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.1965798777392016</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>0.47691910580213698</v>
+      </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>49.066996389388301</v>
       </c>
       <c r="B28" s="2">
         <v>0.21669508284625499</v>
       </c>
+      <c r="C28" s="17">
+        <f t="shared" si="0"/>
+        <v>0.14425208560474145</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>7.244299724151354E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0.33430844987337249</v>
+      </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>49.066996389388301</v>
       </c>
       <c r="B29" s="2">
         <v>0.101752987664727</v>
       </c>
+      <c r="C29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.14425208560474145</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>4.2499097940014455E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0.41766928829694605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30">
+        <f>AVERAGE(E20:E29)</f>
+        <v>0.21594304856916541</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13477,14 +13585,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A322A761-882B-44F1-A786-A95B3813B6B6}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13492,7 +13600,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
@@ -13557,7 +13665,7 @@
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13565,7 +13673,7 @@
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -13644,7 +13752,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13652,7 +13760,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
@@ -13717,7 +13825,7 @@
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13725,7 +13833,7 @@
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -13797,14 +13905,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526543DA-870C-4FD9-86D4-30D11917DC17}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13812,7 +13920,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
@@ -13877,7 +13985,7 @@
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13885,7 +13993,7 @@
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">

--- a/WPDigitalizer/MQ3/MQ3_Analisis.xlsx
+++ b/WPDigitalizer/MQ3/MQ3_Analisis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Migue\OneDrive - ufps.edu.co\Escritorio\MQSensorsLib\WPDigitalizer\MQ3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onmotica Developer\Desktop\MQSensorsLib\WPDigitalizer\MQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9C24FB-BAA8-4F48-89C0-AF5E71E1AE32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12334FA-BDFA-41BA-B922-20AC62706C4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9C5EFFC2-5141-4097-B56E-3EAE3E1B3AE4}"/>
   </bookViews>
@@ -185,6 +185,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -200,16 +210,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3593,6 +3593,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>CH4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12644,7 +12669,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -12656,7 +12681,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -12745,16 +12770,16 @@
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -12762,10 +12787,10 @@
       <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -12968,10 +12993,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="4">
         <f>AVERAGE(E21:E30)</f>
         <v>3.4114634867207769E-2</v>
@@ -12981,7 +13006,7 @@
       <c r="A35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12989,7 +13014,7 @@
       <c r="A36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="14"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -13020,13 +13045,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13045,7 +13070,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13053,7 +13078,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -13142,7 +13167,7 @@
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13150,7 +13175,7 @@
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -13246,14 +13271,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837A142F-A264-4D01-A26F-E9B61CBE035D}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13261,7 +13286,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -13350,7 +13375,7 @@
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13358,7 +13383,7 @@
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -13367,7 +13392,7 @@
       <c r="B20" s="2">
         <v>9.9134863991497504</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="9">
         <f>2E+31*((A20)^(-19.01))</f>
         <v>10.841988518469689</v>
       </c>
@@ -13387,7 +13412,7 @@
       <c r="B21" s="2">
         <v>7.9088476107129697</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="9">
         <f t="shared" ref="C21:C29" si="0">2E+31*((A21)^(-19.01))</f>
         <v>8.129112868706331</v>
       </c>
@@ -13407,7 +13432,7 @@
       <c r="B22" s="2">
         <v>6.1472269232604502</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="9">
         <f t="shared" si="0"/>
         <v>6.0950512832209895</v>
       </c>
@@ -13427,7 +13452,7 @@
       <c r="B23" s="2">
         <v>4.0862106814454302</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="9">
         <f t="shared" si="0"/>
         <v>3.4264609376598312</v>
       </c>
@@ -13447,7 +13472,7 @@
       <c r="B24" s="2">
         <v>2.5118864315095801</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="9">
         <f t="shared" si="0"/>
         <v>2.5690940047573876</v>
       </c>
@@ -13467,7 +13492,7 @@
       <c r="B25" s="2">
         <v>1.65526649552671</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="9">
         <f t="shared" si="0"/>
         <v>2.5690940047573876</v>
       </c>
@@ -13487,7 +13512,7 @@
       <c r="B26" s="2">
         <v>1.01752987664727</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="9">
         <f t="shared" si="0"/>
         <v>1.0828857213146799</v>
       </c>
@@ -13507,7 +13532,7 @@
       <c r="B27" s="2">
         <v>0.412187046707997</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="9">
         <f t="shared" si="0"/>
         <v>0.6087669244471986</v>
       </c>
@@ -13527,7 +13552,7 @@
       <c r="B28" s="2">
         <v>0.21669508284625499</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="9">
         <f t="shared" si="0"/>
         <v>0.14425208560474145</v>
       </c>
@@ -13547,7 +13572,7 @@
       <c r="B29" s="2">
         <v>0.101752987664727</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="9">
         <f t="shared" si="0"/>
         <v>0.14425208560474145</v>
       </c>
@@ -13592,7 +13617,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13600,7 +13625,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
@@ -13665,7 +13690,7 @@
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13673,7 +13698,7 @@
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -13752,7 +13777,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13760,7 +13785,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
@@ -13825,7 +13850,7 @@
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13833,7 +13858,7 @@
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -13912,7 +13937,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13920,7 +13945,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
@@ -13985,7 +14010,7 @@
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13993,7 +14018,7 @@
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
